--- a/modules/Attenuverter/Attenuverter-BOM.xlsx
+++ b/modules/Attenuverter/Attenuverter-BOM.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\Synth-priv\modules\Attenuverter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Len\Documents\Dev\git\Synth-priv\modules\Attenuverter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D390D6BF-EAD9-4662-8D2B-450C16F2B027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8080E87B-DF9E-445B-A5AD-2D0F277054BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6615" yWindow="1950" windowWidth="19380" windowHeight="11835"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Attenuverter-BOM" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="159">
   <si>
     <t>Ref</t>
   </si>
@@ -494,12 +507,15 @@
   </si>
   <si>
     <t>Need</t>
+  </si>
+  <si>
+    <t>14-pin socket</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1345,20 +1361,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="4.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="4.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1423,16 +1439,19 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
       <c r="E2">
         <f>B2-C2-D2</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
@@ -1462,16 +1481,19 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>28</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
       <c r="E3">
         <f t="shared" ref="E3:E18" si="0">B3-C3-D3</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
@@ -1513,16 +1535,19 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>41</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -1552,16 +1577,19 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>50</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
         <v>51</v>
@@ -1588,16 +1616,19 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>58</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
         <v>59</v>
@@ -1642,16 +1673,19 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>70</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>71</v>
@@ -1678,16 +1712,19 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>76</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>77</v>
@@ -1714,16 +1751,19 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>81</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
         <v>82</v>
@@ -1756,16 +1796,19 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>88</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F10" t="s">
         <v>89</v>
@@ -1795,16 +1838,19 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>97</v>
       </c>
       <c r="B11">
         <v>8</v>
       </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F11" t="s">
         <v>98</v>
@@ -1834,16 +1880,19 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>102</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F12" t="s">
         <v>103</v>
@@ -1873,16 +1922,19 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>107</v>
       </c>
       <c r="B13">
         <v>5</v>
       </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F13" t="s">
         <v>108</v>
@@ -1912,16 +1964,19 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>112</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F14" t="s">
         <v>113</v>
@@ -1954,16 +2009,19 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>121</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F15" t="s">
         <v>122</v>
@@ -1996,16 +2054,19 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>127</v>
       </c>
       <c r="B16">
         <v>4</v>
       </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F16" t="s">
         <v>98</v>
@@ -2053,16 +2114,19 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>139</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F17" t="s">
         <v>140</v>
@@ -2089,16 +2153,19 @@
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>147</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F18" t="s">
         <v>148</v>
@@ -2128,8 +2195,23 @@
         <v>154</v>
       </c>
     </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ref="E19" si="1">B19-C19-D19</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E18">
+  <conditionalFormatting sqref="E2:E19">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
